--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\democracy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B4EF78-A621-4E5E-A902-C8B350D406DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A3440-6120-4B11-B809-61352F19A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
@@ -85,6 +85,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD700"/>
+      <color rgb="FF282828"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,10 +125,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -151,10 +154,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -188,7 +188,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFD700"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6066,157 +6066,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="950">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="951">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="952">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="953">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="954">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="955">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="956">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="957">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="958">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="959">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="960">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="961">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="962">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="963">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="964">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="965">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="966">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="967">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="968">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="969">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="978">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="998">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="999">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6229,7 +6229,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -6257,10 +6256,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6269,13 +6265,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentile</a:t>
+                  <a:t>Percentile for Net Worth</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> for Net Worth</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6294,10 +6285,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6332,10 +6320,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6357,7 +6342,7 @@
         <c:axId val="693022512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6384,10 +6369,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6416,10 +6398,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="bg1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6448,10 +6427,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6464,7 +6440,7 @@
         <c:crossAx val="693017232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="0.5"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6487,7 +6463,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="282828"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -6505,7 +6481,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -7078,16 +7058,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>414337</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7435,7 +7415,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15053,7 +15033,7 @@
         <v>95</v>
       </c>
       <c r="B952">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -15061,7 +15041,7 @@
         <v>95.1</v>
       </c>
       <c r="B953">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -15069,7 +15049,7 @@
         <v>95.2</v>
       </c>
       <c r="B954">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -15077,7 +15057,7 @@
         <v>95.3</v>
       </c>
       <c r="B955">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -15085,7 +15065,7 @@
         <v>95.4</v>
       </c>
       <c r="B956">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -15093,7 +15073,7 @@
         <v>95.5</v>
       </c>
       <c r="B957">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -15101,7 +15081,7 @@
         <v>95.6</v>
       </c>
       <c r="B958">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -15109,7 +15089,7 @@
         <v>95.7</v>
       </c>
       <c r="B959">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -15117,7 +15097,7 @@
         <v>95.8</v>
       </c>
       <c r="B960">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -15125,7 +15105,7 @@
         <v>95.9</v>
       </c>
       <c r="B961">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -15133,7 +15113,7 @@
         <v>96</v>
       </c>
       <c r="B962">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -15141,7 +15121,7 @@
         <v>96.1</v>
       </c>
       <c r="B963">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -15149,7 +15129,7 @@
         <v>96.2</v>
       </c>
       <c r="B964">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -15157,7 +15137,7 @@
         <v>96.3</v>
       </c>
       <c r="B965">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
@@ -15165,7 +15145,7 @@
         <v>96.4</v>
       </c>
       <c r="B966">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
@@ -15173,7 +15153,7 @@
         <v>96.5</v>
       </c>
       <c r="B967">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
@@ -15181,7 +15161,7 @@
         <v>96.6</v>
       </c>
       <c r="B968">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -15189,7 +15169,7 @@
         <v>96.7</v>
       </c>
       <c r="B969">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -15197,7 +15177,7 @@
         <v>96.8</v>
       </c>
       <c r="B970">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
@@ -15205,7 +15185,7 @@
         <v>96.9</v>
       </c>
       <c r="B971">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -15213,7 +15193,7 @@
         <v>97</v>
       </c>
       <c r="B972">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -15221,7 +15201,7 @@
         <v>97.1</v>
       </c>
       <c r="B973">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -15229,7 +15209,7 @@
         <v>97.2</v>
       </c>
       <c r="B974">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -15237,7 +15217,7 @@
         <v>97.3</v>
       </c>
       <c r="B975">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -15245,7 +15225,7 @@
         <v>97.4</v>
       </c>
       <c r="B976">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -15253,7 +15233,7 @@
         <v>97.5</v>
       </c>
       <c r="B977">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -15261,7 +15241,7 @@
         <v>97.6</v>
       </c>
       <c r="B978">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -15269,7 +15249,7 @@
         <v>97.7</v>
       </c>
       <c r="B979">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -15277,7 +15257,7 @@
         <v>97.8</v>
       </c>
       <c r="B980">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -15285,7 +15265,7 @@
         <v>97.9</v>
       </c>
       <c r="B981">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -15293,7 +15273,7 @@
         <v>98</v>
       </c>
       <c r="B982">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -15301,7 +15281,7 @@
         <v>98.1</v>
       </c>
       <c r="B983">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -15309,7 +15289,7 @@
         <v>98.2</v>
       </c>
       <c r="B984">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -15317,7 +15297,7 @@
         <v>98.3</v>
       </c>
       <c r="B985">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -15325,7 +15305,7 @@
         <v>98.4</v>
       </c>
       <c r="B986">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -15333,7 +15313,7 @@
         <v>98.5</v>
       </c>
       <c r="B987">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -15341,7 +15321,7 @@
         <v>98.6</v>
       </c>
       <c r="B988">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -15349,7 +15329,7 @@
         <v>98.7</v>
       </c>
       <c r="B989">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -15357,7 +15337,7 @@
         <v>98.8</v>
       </c>
       <c r="B990">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -15365,7 +15345,7 @@
         <v>98.9</v>
       </c>
       <c r="B991">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -15373,7 +15353,7 @@
         <v>99</v>
       </c>
       <c r="B992">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -15381,7 +15361,7 @@
         <v>99.1</v>
       </c>
       <c r="B993">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -15389,7 +15369,7 @@
         <v>99.2</v>
       </c>
       <c r="B994">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -15397,7 +15377,7 @@
         <v>99.3</v>
       </c>
       <c r="B995">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -15405,7 +15385,7 @@
         <v>99.4</v>
       </c>
       <c r="B996">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -15413,7 +15393,7 @@
         <v>99.5</v>
       </c>
       <c r="B997">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -15421,7 +15401,7 @@
         <v>99.6</v>
       </c>
       <c r="B998">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -15429,7 +15409,7 @@
         <v>99.7</v>
       </c>
       <c r="B999">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -15437,7 +15417,7 @@
         <v>99.8</v>
       </c>
       <c r="B1000">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -15445,7 +15425,7 @@
         <v>99.9</v>
       </c>
       <c r="B1001">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -15453,7 +15433,7 @@
         <v>100</v>
       </c>
       <c r="B1002">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071A3440-6120-4B11-B809-61352F19A649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC776CD-CFEC-429C-9F35-39062FDAA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
+    <workbookView xWindow="1020" yWindow="5190" windowWidth="38700" windowHeight="15345" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6066,157 +6066,157 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="950">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="951">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="952">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="953">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="954">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="955">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="956">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="957">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="958">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="959">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="960">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="961">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="962">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="963">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="964">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="965">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="966">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="967">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="968">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="969">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="978">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="998">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="999">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,7 +6342,8 @@
         <c:axId val="693022512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="20"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6440,7 +6441,7 @@
         <c:crossAx val="693017232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7415,7 +7416,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15033,7 +15034,7 @@
         <v>95</v>
       </c>
       <c r="B952">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
@@ -15041,7 +15042,7 @@
         <v>95.1</v>
       </c>
       <c r="B953">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
@@ -15049,7 +15050,7 @@
         <v>95.2</v>
       </c>
       <c r="B954">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
@@ -15057,7 +15058,7 @@
         <v>95.3</v>
       </c>
       <c r="B955">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
@@ -15065,7 +15066,7 @@
         <v>95.4</v>
       </c>
       <c r="B956">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
@@ -15073,7 +15074,7 @@
         <v>95.5</v>
       </c>
       <c r="B957">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
@@ -15081,7 +15082,7 @@
         <v>95.6</v>
       </c>
       <c r="B958">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -15089,7 +15090,7 @@
         <v>95.7</v>
       </c>
       <c r="B959">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -15097,7 +15098,7 @@
         <v>95.8</v>
       </c>
       <c r="B960">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.25">
@@ -15105,7 +15106,7 @@
         <v>95.9</v>
       </c>
       <c r="B961">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -15113,7 +15114,7 @@
         <v>96</v>
       </c>
       <c r="B962">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.25">
@@ -15121,7 +15122,7 @@
         <v>96.1</v>
       </c>
       <c r="B963">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.25">
@@ -15129,7 +15130,7 @@
         <v>96.2</v>
       </c>
       <c r="B964">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.25">
@@ -15137,7 +15138,7 @@
         <v>96.3</v>
       </c>
       <c r="B965">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.25">
@@ -15145,7 +15146,7 @@
         <v>96.4</v>
       </c>
       <c r="B966">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.25">
@@ -15153,7 +15154,7 @@
         <v>96.5</v>
       </c>
       <c r="B967">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.25">
@@ -15161,7 +15162,7 @@
         <v>96.6</v>
       </c>
       <c r="B968">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.25">
@@ -15169,7 +15170,7 @@
         <v>96.7</v>
       </c>
       <c r="B969">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.25">
@@ -15177,7 +15178,7 @@
         <v>96.8</v>
       </c>
       <c r="B970">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.25">
@@ -15185,7 +15186,7 @@
         <v>96.9</v>
       </c>
       <c r="B971">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -15193,7 +15194,7 @@
         <v>97</v>
       </c>
       <c r="B972">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -15201,7 +15202,7 @@
         <v>97.1</v>
       </c>
       <c r="B973">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -15209,7 +15210,7 @@
         <v>97.2</v>
       </c>
       <c r="B974">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -15217,7 +15218,7 @@
         <v>97.3</v>
       </c>
       <c r="B975">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -15225,7 +15226,7 @@
         <v>97.4</v>
       </c>
       <c r="B976">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -15233,7 +15234,7 @@
         <v>97.5</v>
       </c>
       <c r="B977">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -15241,7 +15242,7 @@
         <v>97.6</v>
       </c>
       <c r="B978">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -15249,7 +15250,7 @@
         <v>97.7</v>
       </c>
       <c r="B979">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -15257,7 +15258,7 @@
         <v>97.8</v>
       </c>
       <c r="B980">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -15265,7 +15266,7 @@
         <v>97.9</v>
       </c>
       <c r="B981">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -15273,7 +15274,7 @@
         <v>98</v>
       </c>
       <c r="B982">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -15281,7 +15282,7 @@
         <v>98.1</v>
       </c>
       <c r="B983">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -15289,7 +15290,7 @@
         <v>98.2</v>
       </c>
       <c r="B984">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -15297,7 +15298,7 @@
         <v>98.3</v>
       </c>
       <c r="B985">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -15305,7 +15306,7 @@
         <v>98.4</v>
       </c>
       <c r="B986">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -15313,7 +15314,7 @@
         <v>98.5</v>
       </c>
       <c r="B987">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -15321,7 +15322,7 @@
         <v>98.6</v>
       </c>
       <c r="B988">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -15329,7 +15330,7 @@
         <v>98.7</v>
       </c>
       <c r="B989">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -15337,7 +15338,7 @@
         <v>98.8</v>
       </c>
       <c r="B990">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -15345,7 +15346,7 @@
         <v>98.9</v>
       </c>
       <c r="B991">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -15353,7 +15354,7 @@
         <v>99</v>
       </c>
       <c r="B992">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -15361,7 +15362,7 @@
         <v>99.1</v>
       </c>
       <c r="B993">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -15369,7 +15370,7 @@
         <v>99.2</v>
       </c>
       <c r="B994">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -15377,7 +15378,7 @@
         <v>99.3</v>
       </c>
       <c r="B995">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -15385,7 +15386,7 @@
         <v>99.4</v>
       </c>
       <c r="B996">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -15393,7 +15394,7 @@
         <v>99.5</v>
       </c>
       <c r="B997">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -15401,7 +15402,7 @@
         <v>99.6</v>
       </c>
       <c r="B998">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -15409,7 +15410,7 @@
         <v>99.7</v>
       </c>
       <c r="B999">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -15417,7 +15418,7 @@
         <v>99.8</v>
       </c>
       <c r="B1000">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -15425,7 +15426,7 @@
         <v>99.9</v>
       </c>
       <c r="B1001">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -15433,7 +15434,7 @@
         <v>100</v>
       </c>
       <c r="B1002">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC776CD-CFEC-429C-9F35-39062FDAA271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621FB3A-5819-4E54-9234-0173A6547C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="5190" windowWidth="38700" windowHeight="15345" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
@@ -134,7 +134,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tax Rate vs. Net Worth</a:t>
+              <a:t>Wealth Gains Tax Rate vs. Net Worth</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7416,7 +7416,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621FB3A-5819-4E54-9234-0173A6547C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1992929E-B477-495D-AE0D-6A6C20C5757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="5190" windowWidth="38700" windowHeight="15345" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +50,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,13 +87,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -134,7 +150,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wealth Gains Tax Rate vs. Net Worth</a:t>
+              <a:t>Required Minimum</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Dividend</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Tax</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vs. Net Worth</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6186,37 +6218,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="998">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="999">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>15</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,7 +6374,6 @@
         <c:axId val="693022512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6453,6 +6484,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6460,7 +6492,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6499,7 +6530,660 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulated Annual Robin Hood Tax Relief Per Worker</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFD700"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>134.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>188.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>328.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>403.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>451.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>481.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>352.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>453.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>520.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>638.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>735.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>555.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>470.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>587.80999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>646.91</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>707.37</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>868.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1049.6199999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1089.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1149.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1331.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1420.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1579.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1594.84</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2211.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2997.65</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1998.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2430.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6B6-4187-9A4A-AC15DF084E4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2104182847"/>
+        <c:axId val="2104173247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2104182847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tax Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104173247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2104173247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Annual Tax Relief</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104182847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="282828"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7055,18 +7739,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
+      <xdr:colOff>490536</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
@@ -7076,6 +8276,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF581123-F498-3CC4-3287-8CE0330554A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E96F224-CC1C-2981-6E9D-804C3005A915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7415,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F272E5-A669-4594-BBB8-9DED4AF2A967}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15354,7 +16595,7 @@
         <v>99</v>
       </c>
       <c r="B992">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -15362,7 +16603,7 @@
         <v>99.1</v>
       </c>
       <c r="B993">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -15370,7 +16611,7 @@
         <v>99.2</v>
       </c>
       <c r="B994">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -15378,7 +16619,7 @@
         <v>99.3</v>
       </c>
       <c r="B995">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -15386,7 +16627,7 @@
         <v>99.4</v>
       </c>
       <c r="B996">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -15394,7 +16635,7 @@
         <v>99.5</v>
       </c>
       <c r="B997">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -15402,7 +16643,7 @@
         <v>99.6</v>
       </c>
       <c r="B998">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -15410,7 +16651,7 @@
         <v>99.7</v>
       </c>
       <c r="B999">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -15418,7 +16659,7 @@
         <v>99.8</v>
       </c>
       <c r="B1000">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -15426,7 +16667,7 @@
         <v>99.9</v>
       </c>
       <c r="B1001">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -15434,11 +16675,311 @@
         <v>100</v>
       </c>
       <c r="B1002">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BFB6DC-8893-486D-867B-E7FD033482F8}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1990</v>
+      </c>
+      <c r="B1" s="1">
+        <v>134.72999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1991</v>
+      </c>
+      <c r="B2" s="1">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="1">
+        <v>136.55000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="1">
+        <v>178.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="1">
+        <v>188.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="1">
+        <v>231.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="1">
+        <v>272.54000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="1">
+        <v>328.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="1">
+        <v>403.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>451.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>481.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>352.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="1">
+        <v>309.14999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="1">
+        <v>340.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="1">
+        <v>453.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="1">
+        <v>520.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="1">
+        <v>638.87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="1">
+        <v>735.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="1">
+        <v>555.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="1">
+        <v>470.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="1">
+        <v>587.80999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="1">
+        <v>646.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="1">
+        <v>707.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2013</v>
+      </c>
+      <c r="B24" s="1">
+        <v>868.84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2014</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1049.6199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2015</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1089.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2016</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1149.9000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1331.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1420.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1579.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1594.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2211.4299999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2997.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2023</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1998.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2430.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1992929E-B477-495D-AE0D-6A6C20C5757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812735D-6CA4-44C4-99C0-FA5100190F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,28 +38,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Percentile</t>
+    <t>Tax Rate</t>
   </si>
   <si>
-    <t>Tax rate</t>
+    <t>Percentile for Market Cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +74,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -166,7 +150,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>vs. Net Worth</a:t>
+              <a:t>vs. Market Cap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -204,7 +188,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -212,7 +196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tax rate</c:v>
+                  <c:v>Tax Rate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6158,64 +6142,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="978">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="990">
                   <c:v>37</c:v>
@@ -6256,7 +6240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FBAA-4A10-92DA-8D8DEE4A98B4}"/>
+              <c16:uniqueId val="{00000000-5F8A-435A-9BCE-6675302F1131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6297,7 +6281,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentile for Net Worth</a:t>
+                  <a:t>Percentile for Market Cap</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6530,660 +6514,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Simulated Annual Robin Hood Tax Relief Per Worker</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FFD700"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet2!$A$1:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2009</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$1:$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>134.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>110.77</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>136.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>178.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>188.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>231.88</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>272.54000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>328.95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>403.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>451.19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>481.45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>352.97</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>309.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>340.82</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>453.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>520.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>638.87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>735.82</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>555.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>470.08</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>587.80999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>646.91</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>707.37</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>868.84</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1049.6199999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1089.08</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1149.9000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1331.99</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1420.08</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1579.28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1594.84</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2211.4299999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2997.65</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1998.35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2430.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A6B6-4187-9A4A-AC15DF084E4B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2104182847"/>
-        <c:axId val="2104173247"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2104182847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Tax Year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2104173247"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2104173247"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Annual Tax Relief</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2104182847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="282828"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7739,536 +7070,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>490536</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8276,47 +7091,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF581123-F498-3CC4-3287-8CE0330554A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E96F224-CC1C-2981-6E9D-804C3005A915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8656,18 +7430,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F272E5-A669-4594-BBB8-9DED4AF2A967}">
   <dimension ref="A1:B1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -16435,7 +15212,7 @@
         <v>97</v>
       </c>
       <c r="B972">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -16443,7 +15220,7 @@
         <v>97.1</v>
       </c>
       <c r="B973">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -16451,7 +15228,7 @@
         <v>97.2</v>
       </c>
       <c r="B974">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -16459,7 +15236,7 @@
         <v>97.3</v>
       </c>
       <c r="B975">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -16467,7 +15244,7 @@
         <v>97.4</v>
       </c>
       <c r="B976">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -16475,7 +15252,7 @@
         <v>97.5</v>
       </c>
       <c r="B977">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -16483,7 +15260,7 @@
         <v>97.6</v>
       </c>
       <c r="B978">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -16491,7 +15268,7 @@
         <v>97.7</v>
       </c>
       <c r="B979">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -16499,7 +15276,7 @@
         <v>97.8</v>
       </c>
       <c r="B980">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -16507,7 +15284,7 @@
         <v>97.9</v>
       </c>
       <c r="B981">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -16515,7 +15292,7 @@
         <v>98</v>
       </c>
       <c r="B982">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -16523,7 +15300,7 @@
         <v>98.1</v>
       </c>
       <c r="B983">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -16531,7 +15308,7 @@
         <v>98.2</v>
       </c>
       <c r="B984">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -16539,7 +15316,7 @@
         <v>98.3</v>
       </c>
       <c r="B985">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -16547,7 +15324,7 @@
         <v>98.4</v>
       </c>
       <c r="B986">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -16555,7 +15332,7 @@
         <v>98.5</v>
       </c>
       <c r="B987">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -16563,7 +15340,7 @@
         <v>98.6</v>
       </c>
       <c r="B988">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -16571,7 +15348,7 @@
         <v>98.7</v>
       </c>
       <c r="B989">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -16579,7 +15356,7 @@
         <v>98.8</v>
       </c>
       <c r="B990">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -16587,7 +15364,7 @@
         <v>98.9</v>
       </c>
       <c r="B991">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -16682,304 +15459,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BFB6DC-8893-486D-867B-E7FD033482F8}">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1990</v>
-      </c>
-      <c r="B1" s="1">
-        <v>134.72999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1991</v>
-      </c>
-      <c r="B2" s="1">
-        <v>110.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="1">
-        <v>136.55000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="1">
-        <v>178.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1994</v>
-      </c>
-      <c r="B5" s="1">
-        <v>188.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1995</v>
-      </c>
-      <c r="B6" s="1">
-        <v>231.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1996</v>
-      </c>
-      <c r="B7" s="1">
-        <v>272.54000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1997</v>
-      </c>
-      <c r="B8" s="1">
-        <v>328.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1998</v>
-      </c>
-      <c r="B9" s="1">
-        <v>403.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1999</v>
-      </c>
-      <c r="B10" s="1">
-        <v>451.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="1">
-        <v>481.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="1">
-        <v>352.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="1">
-        <v>309.14999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="1">
-        <v>340.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2004</v>
-      </c>
-      <c r="B15" s="1">
-        <v>453.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="1">
-        <v>520.15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="1">
-        <v>638.87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="1">
-        <v>735.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" s="1">
-        <v>555.36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20" s="1">
-        <v>470.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21" s="1">
-        <v>587.80999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="1">
-        <v>646.91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2012</v>
-      </c>
-      <c r="B23" s="1">
-        <v>707.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2013</v>
-      </c>
-      <c r="B24" s="1">
-        <v>868.84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2014</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1049.6199999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2015</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1089.08</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2016</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1149.9000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2017</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1331.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2018</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1420.08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2019</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1579.28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2020</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1594.84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2021</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2211.4299999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2997.65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2023</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1998.35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2024</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2430.04</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E812735D-6CA4-44C4-99C0-FA5100190F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA8058-6EB5-4B78-BD1C-73CA9884EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Tax Rate</t>
+    <t>Percentile for Market Cap</t>
   </si>
   <si>
-    <t>Percentile for Market Cap</t>
+    <t>RMD Yield</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tax Rate</c:v>
+                  <c:v>RMD Yield</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6142,97 +6142,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="970">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="971">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="972">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="973">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="974">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="975">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="976">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="977">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="978">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="979">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="980">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="981">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="982">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="983">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="984">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="985">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="986">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="987">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="988">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="989">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="990">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="991">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="992">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="993">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="994">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="995">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="996">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="997">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="998">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="999">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1000">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6394,7 +6394,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tax rate (%)</a:t>
+                  <a:t>RMD Yield (%)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6456,7 +6456,6 @@
         <c:crossAx val="693017232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7431,20 +7430,21 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15212,7 +15212,7 @@
         <v>97</v>
       </c>
       <c r="B972">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.25">
@@ -15220,7 +15220,7 @@
         <v>97.1</v>
       </c>
       <c r="B973">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.25">
@@ -15228,7 +15228,7 @@
         <v>97.2</v>
       </c>
       <c r="B974">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.25">
@@ -15236,7 +15236,7 @@
         <v>97.3</v>
       </c>
       <c r="B975">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.25">
@@ -15244,7 +15244,7 @@
         <v>97.4</v>
       </c>
       <c r="B976">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.25">
@@ -15252,7 +15252,7 @@
         <v>97.5</v>
       </c>
       <c r="B977">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.25">
@@ -15260,7 +15260,7 @@
         <v>97.6</v>
       </c>
       <c r="B978">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.25">
@@ -15268,7 +15268,7 @@
         <v>97.7</v>
       </c>
       <c r="B979">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.25">
@@ -15276,7 +15276,7 @@
         <v>97.8</v>
       </c>
       <c r="B980">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -15284,7 +15284,7 @@
         <v>97.9</v>
       </c>
       <c r="B981">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.25">
@@ -15292,7 +15292,7 @@
         <v>98</v>
       </c>
       <c r="B982">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -15300,7 +15300,7 @@
         <v>98.1</v>
       </c>
       <c r="B983">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.25">
@@ -15308,7 +15308,7 @@
         <v>98.2</v>
       </c>
       <c r="B984">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.25">
@@ -15316,7 +15316,7 @@
         <v>98.3</v>
       </c>
       <c r="B985">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.25">
@@ -15324,7 +15324,7 @@
         <v>98.4</v>
       </c>
       <c r="B986">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.25">
@@ -15332,7 +15332,7 @@
         <v>98.5</v>
       </c>
       <c r="B987">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.25">
@@ -15340,7 +15340,7 @@
         <v>98.6</v>
       </c>
       <c r="B988">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.25">
@@ -15348,7 +15348,7 @@
         <v>98.7</v>
       </c>
       <c r="B989">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.25">
@@ -15356,7 +15356,7 @@
         <v>98.8</v>
       </c>
       <c r="B990">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.25">
@@ -15364,7 +15364,7 @@
         <v>98.9</v>
       </c>
       <c r="B991">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.25">
@@ -15372,7 +15372,7 @@
         <v>99</v>
       </c>
       <c r="B992">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.25">
@@ -15380,7 +15380,7 @@
         <v>99.1</v>
       </c>
       <c r="B993">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.25">
@@ -15388,7 +15388,7 @@
         <v>99.2</v>
       </c>
       <c r="B994">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.25">
@@ -15396,7 +15396,7 @@
         <v>99.3</v>
       </c>
       <c r="B995">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.25">
@@ -15404,7 +15404,7 @@
         <v>99.4</v>
       </c>
       <c r="B996">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.25">
@@ -15412,7 +15412,7 @@
         <v>99.5</v>
       </c>
       <c r="B997">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.25">
@@ -15420,7 +15420,7 @@
         <v>99.6</v>
       </c>
       <c r="B998">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.25">
@@ -15428,7 +15428,7 @@
         <v>99.7</v>
       </c>
       <c r="B999">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
@@ -15436,7 +15436,7 @@
         <v>99.8</v>
       </c>
       <c r="B1000">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
@@ -15444,7 +15444,7 @@
         <v>99.9</v>
       </c>
       <c r="B1001">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
@@ -15452,7 +15452,7 @@
         <v>100</v>
       </c>
       <c r="B1002">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABA8058-6EB5-4B78-BD1C-73CA9884EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC225EF9-F021-4F81-86E9-D6799E4A2C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
@@ -142,15 +142,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> Tax</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Rate </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>vs. Market Cap</a:t>
+              <a:t> Yield vs. Market Cap</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7430,7 +7422,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/images/Wealth tax graph.xlsx
+++ b/images/Wealth tax graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeemi\OneDrive\Documents\GitHub\PhillyTechDudeBro69\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC225EF9-F021-4F81-86E9-D6799E4A2C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0907428D-24FE-4D29-9A68-4AD5B84022C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2F02010A-BE7A-4D82-8038-497F747FAB63}"/>
   </bookViews>
@@ -7422,7 +7422,7 @@
   <dimension ref="A1:B1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
